--- a/3_Implementation/Data.xlsx
+++ b/3_Implementation/Data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" state="visible" r:id="rId1"/>
@@ -80,51 +80,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -493,28 +493,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="15"/>
-    <col customWidth="1" max="7" min="7" width="15"/>
-    <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" width="15"/>
-    <col customWidth="1" max="10" min="10" width="15"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
-    <col customWidth="1" max="12" min="12" width="15"/>
-    <col customWidth="1" max="13" min="13" width="15"/>
-    <col customWidth="1" max="14" min="14" width="15"/>
-    <col customWidth="1" max="15" min="15" width="15"/>
-    <col customWidth="1" max="16" min="16" width="15"/>
-    <col customWidth="1" max="17" min="17" width="15"/>
-    <col customWidth="1" max="18" min="18" width="15"/>
-    <col customWidth="1" max="19" min="19" width="15"/>
-    <col customWidth="1" max="20" min="20" width="15"/>
-    <col customWidth="1" max="21" min="21" width="15"/>
-    <col customWidth="1" max="22" min="22" width="15"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -550,7 +550,7 @@
       <c r="B2" s="1" t="n"/>
       <c r="C2" s="1" t="n"/>
       <c r="D2" s="1" t="n">
-        <v>88004500</v>
+        <v>88002500</v>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
@@ -1186,6 +1186,6 @@
       <c r="J22" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>